--- a/src/so/research.xlsx
+++ b/src/so/research.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="338">
   <si>
     <t>Gen</t>
   </si>
@@ -943,6 +943,93 @@
   </si>
   <si>
     <t>Yoon</t>
+  </si>
+  <si>
+    <t>Laawiintii</t>
+  </si>
+  <si>
+    <t>Sharci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruud    </t>
+  </si>
+  <si>
+    <t>Boqorraddii Kowaad</t>
+  </si>
+  <si>
+    <t>Boqorraddii Labaad</t>
+  </si>
+  <si>
+    <t>Es</t>
+  </si>
+  <si>
+    <t>Ayu</t>
+  </si>
+  <si>
+    <t>Wacdiyaha</t>
+  </si>
+  <si>
+    <t>Baroor</t>
+  </si>
+  <si>
+    <t>Yoo</t>
+  </si>
+  <si>
+    <t>Cob</t>
+  </si>
+  <si>
+    <t>Miik</t>
+  </si>
+  <si>
+    <t>Xab</t>
+  </si>
+  <si>
+    <t>SIM translator</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Korintos Kowaad</t>
+  </si>
+  <si>
+    <t>Korintos Labaad</t>
+  </si>
+  <si>
+    <t>Tesoloniika Kowaad</t>
+  </si>
+  <si>
+    <t>Tesoloniika Labaad</t>
+  </si>
+  <si>
+    <t>Timoteyos Kowaad</t>
+  </si>
+  <si>
+    <t>Timoteyos Labaad</t>
+  </si>
+  <si>
+    <t>Filem</t>
+  </si>
+  <si>
+    <t>Butros Kowaad</t>
+  </si>
+  <si>
+    <t>Butros Labaad</t>
+  </si>
+  <si>
+    <t>Yooxanaa Kowaad</t>
+  </si>
+  <si>
+    <t>Yooxanaa Labaad</t>
+  </si>
+  <si>
+    <t>Yooxanaa Saddexaad</t>
+  </si>
+  <si>
+    <t>Muujintii</t>
+  </si>
+  <si>
+    <t>Ignore yellow highlights; I don't think they're right</t>
   </si>
 </sst>
 </file>
@@ -958,12 +1045,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -978,13 +1071,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1281,18 +1396,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>139</v>
       </c>
@@ -1305,8 +1418,14 @@
       <c r="F1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1316,8 +1435,14 @@
       <c r="D2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1327,8 +1452,14 @@
       <c r="D3" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1338,8 +1469,14 @@
       <c r="D4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1349,16 +1486,28 @@
       <c r="D5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1368,8 +1517,14 @@
       <c r="D7" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1379,16 +1534,28 @@
       <c r="D8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1401,8 +1568,14 @@
       <c r="E10" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1415,8 +1588,14 @@
       <c r="E11" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1429,8 +1608,14 @@
       <c r="E12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>312</v>
+      </c>
+      <c r="H12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1628,14 @@
       <c r="E13" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>313</v>
+      </c>
+      <c r="H13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1457,8 +1648,14 @@
       <c r="E14" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1471,8 +1668,14 @@
       <c r="E15" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1685,14 @@
       <c r="D16" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1493,8 +1702,14 @@
       <c r="D17" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1504,16 +1719,28 @@
       <c r="D18" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1529,8 +1756,14 @@
       <c r="F20" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>304</v>
+      </c>
+      <c r="H20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1540,8 +1773,14 @@
       <c r="D21" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1551,8 +1790,14 @@
       <c r="D22" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>316</v>
+      </c>
+      <c r="H22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1562,8 +1807,14 @@
       <c r="D23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1573,8 +1824,14 @@
       <c r="D24" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1584,8 +1841,14 @@
       <c r="D25" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1595,8 +1858,14 @@
       <c r="D26" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>91</v>
+      </c>
+      <c r="H26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1606,8 +1875,14 @@
       <c r="D27" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1617,8 +1892,14 @@
       <c r="D28" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>93</v>
+      </c>
+      <c r="H28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1628,8 +1909,14 @@
       <c r="D29" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1639,8 +1926,14 @@
       <c r="D30" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1650,8 +1943,14 @@
       <c r="D31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1661,8 +1960,14 @@
       <c r="D32" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1672,8 +1977,14 @@
       <c r="D33" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1681,10 +1992,16 @@
         <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>99</v>
+      </c>
+      <c r="H34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1694,8 +2011,14 @@
       <c r="D35" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H35" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1705,8 +2028,14 @@
       <c r="D36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1716,8 +2045,14 @@
       <c r="D37" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1727,8 +2062,14 @@
       <c r="D38" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>103</v>
+      </c>
+      <c r="H38" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1738,8 +2079,14 @@
       <c r="D39" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1749,8 +2096,14 @@
       <c r="D40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>105</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1760,8 +2113,14 @@
       <c r="C41" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H41" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1774,8 +2133,14 @@
       <c r="D42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1785,8 +2150,14 @@
       <c r="C43" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1796,8 +2167,14 @@
       <c r="C44" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1807,16 +2184,28 @@
       <c r="C45" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>110</v>
+      </c>
+      <c r="H45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>111</v>
+      </c>
+      <c r="H46" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1826,8 +2215,14 @@
       <c r="C47" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>324</v>
+      </c>
+      <c r="H47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1837,8 +2232,14 @@
       <c r="C48" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>325</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1848,8 +2249,14 @@
       <c r="D49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>114</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1859,8 +2266,14 @@
       <c r="C50" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1870,8 +2283,14 @@
       <c r="D51" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>116</v>
+      </c>
+      <c r="H51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1881,8 +2300,14 @@
       <c r="C52" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>117</v>
+      </c>
+      <c r="H52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1892,8 +2317,14 @@
       <c r="D53" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>326</v>
+      </c>
+      <c r="H53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1903,8 +2334,14 @@
       <c r="D54" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G54" t="s">
+        <v>327</v>
+      </c>
+      <c r="H54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1914,8 +2351,14 @@
       <c r="D55" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G55" t="s">
+        <v>328</v>
+      </c>
+      <c r="H55" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1925,8 +2368,14 @@
       <c r="D56" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G56" t="s">
+        <v>329</v>
+      </c>
+      <c r="H56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1936,8 +2385,14 @@
       <c r="D57" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G57" t="s">
+        <v>122</v>
+      </c>
+      <c r="H57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1947,8 +2402,14 @@
       <c r="D58" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G58" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1958,8 +2419,14 @@
       <c r="D59" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1969,8 +2436,14 @@
       <c r="D60" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1980,8 +2453,14 @@
       <c r="C61" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G61" t="s">
+        <v>331</v>
+      </c>
+      <c r="H61" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1991,8 +2470,14 @@
       <c r="C62" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G62" t="s">
+        <v>332</v>
+      </c>
+      <c r="H62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2002,8 +2487,14 @@
       <c r="D63" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G63" t="s">
+        <v>333</v>
+      </c>
+      <c r="H63" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2013,8 +2504,14 @@
       <c r="D64" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G64" t="s">
+        <v>334</v>
+      </c>
+      <c r="H64" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2024,8 +2521,14 @@
       <c r="D65" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G65" t="s">
+        <v>335</v>
+      </c>
+      <c r="H65" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2035,8 +2538,14 @@
       <c r="C66" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G66" t="s">
+        <v>131</v>
+      </c>
+      <c r="H66" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2046,8 +2555,14 @@
       <c r="D67" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G67" t="s">
+        <v>336</v>
+      </c>
+      <c r="H67" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>192</v>
       </c>
@@ -2056,7 +2571,7 @@
         <v>Tob</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>193</v>
       </c>
@@ -2065,7 +2580,7 @@
         <v>Jdt</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>194</v>
       </c>
@@ -2074,7 +2589,7 @@
         <v>GkEsth</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -2083,7 +2598,7 @@
         <v>Wis</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>196</v>
       </c>
@@ -2092,7 +2607,7 @@
         <v>Sir</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>197</v>
       </c>
@@ -2101,7 +2616,7 @@
         <v>Bar</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>198</v>
       </c>
@@ -2110,7 +2625,7 @@
         <v>PrAzar</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>199</v>
       </c>
@@ -2119,7 +2634,7 @@
         <v>Sus</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>200</v>
       </c>
@@ -2128,7 +2643,7 @@
         <v>Bel</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>201</v>
       </c>
@@ -2137,7 +2652,7 @@
         <v>SgThree</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>202</v>
       </c>
@@ -2146,7 +2661,7 @@
         <v>EpJer</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>203</v>
       </c>
@@ -2155,7 +2670,7 @@
         <v>1Macc</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>204</v>
       </c>
@@ -2218,9 +2733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3092,12 +3605,989 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>132</v>
+      </c>
+      <c r="E9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" t="s">
+        <v>304</v>
+      </c>
+      <c r="D19" t="s">
+        <v>158</v>
+      </c>
+      <c r="F19" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="D25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="G46" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>113</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" t="s">
+        <v>178</v>
+      </c>
+      <c r="G53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="D54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+      <c r="G55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="D56" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="D59" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>185</v>
+      </c>
+      <c r="G60" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>129</v>
+      </c>
+      <c r="D63" t="s">
+        <v>188</v>
+      </c>
+      <c r="G63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>192</v>
+      </c>
+      <c r="B67" t="str">
+        <f>A67</f>
+        <v>Tob</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>193</v>
+      </c>
+      <c r="B68" t="str">
+        <f t="shared" ref="B68:B84" si="0">A68</f>
+        <v>Jdt</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" t="str">
+        <f t="shared" si="0"/>
+        <v>GkEsth</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>195</v>
+      </c>
+      <c r="B70" t="str">
+        <f t="shared" si="0"/>
+        <v>Wis</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>196</v>
+      </c>
+      <c r="B71" t="str">
+        <f t="shared" si="0"/>
+        <v>Sir</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+      <c r="B72" t="str">
+        <f t="shared" si="0"/>
+        <v>Bar</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" t="str">
+        <f t="shared" si="0"/>
+        <v>PrAzar</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>199</v>
+      </c>
+      <c r="B74" t="str">
+        <f t="shared" si="0"/>
+        <v>Sus</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>200</v>
+      </c>
+      <c r="B75" t="str">
+        <f t="shared" si="0"/>
+        <v>Bel</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>201</v>
+      </c>
+      <c r="B76" t="str">
+        <f t="shared" si="0"/>
+        <v>SgThree</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>202</v>
+      </c>
+      <c r="B77" t="str">
+        <f t="shared" si="0"/>
+        <v>EpJer</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>203</v>
+      </c>
+      <c r="B78" t="str">
+        <f t="shared" si="0"/>
+        <v>1Macc</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>204</v>
+      </c>
+      <c r="B79" t="str">
+        <f t="shared" si="0"/>
+        <v>2Macc</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" t="str">
+        <f t="shared" si="0"/>
+        <v>3Macc</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>206</v>
+      </c>
+      <c r="B81" t="str">
+        <f t="shared" si="0"/>
+        <v>4Macc</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" t="str">
+        <f t="shared" si="0"/>
+        <v>1Esd</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" t="str">
+        <f t="shared" si="0"/>
+        <v>2Esd</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" t="str">
+        <f t="shared" si="0"/>
+        <v>PrMan</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:H1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>